--- a/JupyterNotebooks/AveragedIntensites/o554F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="o554F-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="o554F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9957045915845617</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.010334526185207</v>
+      </c>
+      <c r="D16">
+        <v>0.926759645655817</v>
+      </c>
+      <c r="E16">
+        <v>1.009172679661215</v>
+      </c>
+      <c r="F16">
+        <v>1.010334526185207</v>
+      </c>
+      <c r="G16">
+        <v>0.9599991728739697</v>
+      </c>
+      <c r="H16">
+        <v>1.03691429481915</v>
+      </c>
+      <c r="I16">
+        <v>1.012069983939075</v>
+      </c>
+      <c r="J16">
+        <v>0.926759645655817</v>
+      </c>
+      <c r="K16">
+        <v>0.9679661626585159</v>
+      </c>
+      <c r="L16">
+        <v>0.9891503444218617</v>
+      </c>
+      <c r="M16">
+        <v>0.9925417171890726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.010334526185207</v>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.020635999999999</v>
+        <v>1.010334526185207</v>
       </c>
       <c r="D10">
-        <v>0.8703680000000006</v>
+        <v>0.926759645655817</v>
       </c>
       <c r="E10">
-        <v>1.027928</v>
+        <v>1.009172679661215</v>
       </c>
       <c r="F10">
-        <v>1.020635999999999</v>
+        <v>1.010334526185207</v>
       </c>
       <c r="G10">
-        <v>0.922472000000002</v>
+        <v>0.9599991728739697</v>
       </c>
       <c r="H10">
-        <v>1.097543999999999</v>
+        <v>1.03691429481915</v>
       </c>
       <c r="I10">
-        <v>1.026679999999999</v>
+        <v>1.012069983939075</v>
       </c>
       <c r="J10">
-        <v>0.8703680000000006</v>
+        <v>0.926759645655817</v>
       </c>
       <c r="K10">
-        <v>0.9491480000000003</v>
+        <v>0.9679661626585159</v>
       </c>
       <c r="L10">
-        <v>0.9848919999999997</v>
+        <v>0.9891503444218617</v>
       </c>
       <c r="M10">
-        <v>0.9942713333333332</v>
+        <v>0.9925417171890726</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>0.9918250382859393</v>
       </c>
       <c r="D11">
-        <v>0.7461125000000011</v>
+        <v>1.007082951220033</v>
       </c>
       <c r="E11">
-        <v>1.06</v>
+        <v>0.9918111722493348</v>
       </c>
       <c r="F11">
-        <v>1.05</v>
+        <v>0.9918250382859393</v>
       </c>
       <c r="G11">
-        <v>0.85</v>
+        <v>1.000616530771101</v>
       </c>
       <c r="H11">
-        <v>1.2</v>
+        <v>0.9849033623358842</v>
       </c>
       <c r="I11">
-        <v>1.06</v>
+        <v>0.9912583617258226</v>
       </c>
       <c r="J11">
-        <v>0.7461125000000011</v>
+        <v>1.007082951220033</v>
       </c>
       <c r="K11">
-        <v>0.9030562500000006</v>
+        <v>0.999447061734684</v>
       </c>
       <c r="L11">
-        <v>0.9765281250000002</v>
+        <v>0.9956360500103116</v>
       </c>
       <c r="M11">
-        <v>0.9943520833333336</v>
+        <v>0.9945829027646859</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.027505905049599</v>
+        <v>0.991733114489273</v>
       </c>
       <c r="D12">
-        <v>0.8493880448000025</v>
+        <v>1.007379881875671</v>
       </c>
       <c r="E12">
-        <v>1.033084348825599</v>
+        <v>0.9917567758855552</v>
       </c>
       <c r="F12">
-        <v>1.027505905049599</v>
+        <v>0.991733114489273</v>
       </c>
       <c r="G12">
-        <v>0.9105357925376051</v>
+        <v>1.000751746359043</v>
       </c>
       <c r="H12">
-        <v>1.112871298457598</v>
+        <v>0.9847302702994051</v>
       </c>
       <c r="I12">
-        <v>1.032606124441603</v>
+        <v>0.9911916238573156</v>
       </c>
       <c r="J12">
-        <v>0.8493880448000025</v>
+        <v>1.007379881875671</v>
       </c>
       <c r="K12">
-        <v>0.9412361968128009</v>
+        <v>0.9995683288806133</v>
       </c>
       <c r="L12">
-        <v>0.9843710509311998</v>
+        <v>0.9956507216849433</v>
       </c>
       <c r="M12">
-        <v>0.9943319190186678</v>
+        <v>0.9945905687943771</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9946196628895481</v>
+        <v>0.9918159117793458</v>
       </c>
       <c r="D13">
-        <v>0.99512277449894</v>
+        <v>1.007104857164515</v>
       </c>
       <c r="E13">
-        <v>0.9953239227158313</v>
+        <v>0.9918197796544369</v>
       </c>
       <c r="F13">
-        <v>0.9946196628895481</v>
+        <v>0.9918159117793458</v>
       </c>
       <c r="G13">
-        <v>0.9944352433466371</v>
+        <v>1.00061857131567</v>
       </c>
       <c r="H13">
-        <v>0.995624102483925</v>
+        <v>0.9848648329629496</v>
       </c>
       <c r="I13">
-        <v>0.9949609971634735</v>
+        <v>0.9912539182258197</v>
       </c>
       <c r="J13">
-        <v>0.99512277449894</v>
+        <v>1.007104857164515</v>
       </c>
       <c r="K13">
-        <v>0.9952233486073856</v>
+        <v>0.999462318409476</v>
       </c>
       <c r="L13">
-        <v>0.9949215057484668</v>
+        <v>0.9956391150944109</v>
       </c>
       <c r="M13">
-        <v>0.9950144505163925</v>
+        <v>0.9945796451837895</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9903470099055087</v>
+        <v>1.020635999999999</v>
       </c>
       <c r="D14">
-        <v>1.003349142013436</v>
+        <v>0.8703680000000006</v>
       </c>
       <c r="E14">
-        <v>0.9928917274737754</v>
+        <v>1.027928</v>
       </c>
       <c r="F14">
-        <v>0.9903470099055087</v>
+        <v>1.020635999999999</v>
       </c>
       <c r="G14">
-        <v>0.9995116746476891</v>
+        <v>0.922472000000002</v>
       </c>
       <c r="H14">
-        <v>0.9918743210785456</v>
+        <v>1.097543999999999</v>
       </c>
       <c r="I14">
-        <v>0.993469216594414</v>
+        <v>1.026679999999999</v>
       </c>
       <c r="J14">
-        <v>1.003349142013436</v>
+        <v>0.8703680000000006</v>
       </c>
       <c r="K14">
-        <v>0.9981204347436059</v>
+        <v>0.9491480000000003</v>
       </c>
       <c r="L14">
-        <v>0.9942337223245573</v>
+        <v>0.9848919999999997</v>
       </c>
       <c r="M14">
-        <v>0.9952405152855613</v>
+        <v>0.9942713333333332</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9885419359001381</v>
+        <v>1.05</v>
       </c>
       <c r="D15">
-        <v>1.023904868801994</v>
+        <v>0.7461125000000011</v>
       </c>
       <c r="E15">
-        <v>0.9883284315851379</v>
+        <v>1.06</v>
       </c>
       <c r="F15">
-        <v>0.9885419359001381</v>
+        <v>1.05</v>
       </c>
       <c r="G15">
-        <v>1.011093490859023</v>
+        <v>0.85</v>
       </c>
       <c r="H15">
-        <v>0.9748694217102131</v>
+        <v>1.2</v>
       </c>
       <c r="I15">
-        <v>0.9874894006508635</v>
+        <v>1.06</v>
       </c>
       <c r="J15">
-        <v>1.023904868801994</v>
+        <v>0.7461125000000011</v>
       </c>
       <c r="K15">
-        <v>1.006116650193566</v>
+        <v>0.9030562500000006</v>
       </c>
       <c r="L15">
-        <v>0.9973292930468519</v>
+        <v>0.9765281250000002</v>
       </c>
       <c r="M15">
-        <v>0.9957045915845617</v>
+        <v>0.9943520833333336</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.010334526185207</v>
+        <v>1.027505905049599</v>
       </c>
       <c r="D16">
-        <v>0.926759645655817</v>
+        <v>0.8493880448000025</v>
       </c>
       <c r="E16">
-        <v>1.009172679661215</v>
+        <v>1.033084348825599</v>
       </c>
       <c r="F16">
-        <v>1.010334526185207</v>
+        <v>1.027505905049599</v>
       </c>
       <c r="G16">
-        <v>0.9599991728739697</v>
+        <v>0.9105357925376051</v>
       </c>
       <c r="H16">
-        <v>1.03691429481915</v>
+        <v>1.112871298457598</v>
       </c>
       <c r="I16">
-        <v>1.012069983939075</v>
+        <v>1.032606124441603</v>
       </c>
       <c r="J16">
-        <v>0.926759645655817</v>
+        <v>0.8493880448000025</v>
       </c>
       <c r="K16">
-        <v>0.9679661626585159</v>
+        <v>0.9412361968128009</v>
       </c>
       <c r="L16">
-        <v>0.9891503444218617</v>
+        <v>0.9843710509311998</v>
       </c>
       <c r="M16">
-        <v>0.9925417171890726</v>
+        <v>0.9943319190186678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9946196628895481</v>
+      </c>
+      <c r="D17">
+        <v>0.99512277449894</v>
+      </c>
+      <c r="E17">
+        <v>0.9953239227158313</v>
+      </c>
+      <c r="F17">
+        <v>0.9946196628895481</v>
+      </c>
+      <c r="G17">
+        <v>0.9944352433466371</v>
+      </c>
+      <c r="H17">
+        <v>0.995624102483925</v>
+      </c>
+      <c r="I17">
+        <v>0.9949609971634735</v>
+      </c>
+      <c r="J17">
+        <v>0.99512277449894</v>
+      </c>
+      <c r="K17">
+        <v>0.9952233486073856</v>
+      </c>
+      <c r="L17">
+        <v>0.9949215057484668</v>
+      </c>
+      <c r="M17">
+        <v>0.9950144505163925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9903470099055087</v>
+      </c>
+      <c r="D18">
+        <v>1.003349142013436</v>
+      </c>
+      <c r="E18">
+        <v>0.9928917274737754</v>
+      </c>
+      <c r="F18">
+        <v>0.9903470099055087</v>
+      </c>
+      <c r="G18">
+        <v>0.9995116746476891</v>
+      </c>
+      <c r="H18">
+        <v>0.9918743210785456</v>
+      </c>
+      <c r="I18">
+        <v>0.993469216594414</v>
+      </c>
+      <c r="J18">
+        <v>1.003349142013436</v>
+      </c>
+      <c r="K18">
+        <v>0.9981204347436059</v>
+      </c>
+      <c r="L18">
+        <v>0.9942337223245573</v>
+      </c>
+      <c r="M18">
+        <v>0.9952405152855613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9885419359001381</v>
+      </c>
+      <c r="D19">
+        <v>1.023904868801994</v>
+      </c>
+      <c r="E19">
+        <v>0.9883284315851379</v>
+      </c>
+      <c r="F19">
+        <v>0.9885419359001381</v>
+      </c>
+      <c r="G19">
+        <v>1.011093490859023</v>
+      </c>
+      <c r="H19">
+        <v>0.9748694217102131</v>
+      </c>
+      <c r="I19">
+        <v>0.9874894006508635</v>
+      </c>
+      <c r="J19">
+        <v>1.023904868801994</v>
+      </c>
+      <c r="K19">
+        <v>1.006116650193566</v>
+      </c>
+      <c r="L19">
+        <v>0.9973292930468519</v>
+      </c>
+      <c r="M19">
+        <v>0.9957045915845617</v>
       </c>
     </row>
   </sheetData>
